--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.7909347122304</v>
+        <v>464.5058006305597</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.7987679240425</v>
+        <v>635.557328972365</v>
       </c>
       <c r="AC2" t="n">
-        <v>510.8951662134206</v>
+        <v>574.9006295055552</v>
       </c>
       <c r="AD2" t="n">
-        <v>412790.9347122303</v>
+        <v>464505.8006305597</v>
       </c>
       <c r="AE2" t="n">
-        <v>564798.7679240425</v>
+        <v>635557.328972365</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.774284157870073e-06</v>
+        <v>3.999586745332007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.95625</v>
       </c>
       <c r="AH2" t="n">
-        <v>510895.1662134206</v>
+        <v>574900.6295055553</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.7015488853389</v>
+        <v>188.0643383581291</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.301240018596</v>
+        <v>257.3179245545232</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.2303848309254</v>
+        <v>232.7598629830898</v>
       </c>
       <c r="AD3" t="n">
-        <v>153701.5488853389</v>
+        <v>188064.3383581291</v>
       </c>
       <c r="AE3" t="n">
-        <v>210301.240018596</v>
+        <v>257317.9245545232</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.095159515053381e-06</v>
+        <v>7.345510157620323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.964583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>190230.3848309254</v>
+        <v>232759.8629830898</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.1550699898347</v>
+        <v>142.4218950893525</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.2426882120206</v>
+        <v>194.8679200717302</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.8995263897353</v>
+        <v>176.2699992789829</v>
       </c>
       <c r="AD4" t="n">
-        <v>125155.0699898347</v>
+        <v>142421.8950893525</v>
       </c>
       <c r="AE4" t="n">
-        <v>171242.6882120206</v>
+        <v>194867.9200717302</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.94683280282987e-06</v>
+        <v>8.573337229148337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.110416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>154899.5263897353</v>
+        <v>176269.9992789829</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.8660396557996</v>
+        <v>135.6808021876781</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.3235624045901</v>
+        <v>185.6444593676342</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.9768925891819</v>
+        <v>167.9268127192746</v>
       </c>
       <c r="AD5" t="n">
-        <v>109866.0396557996</v>
+        <v>135680.8021876781</v>
       </c>
       <c r="AE5" t="n">
-        <v>150323.5624045901</v>
+        <v>185644.4593676342</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.15369692103252e-06</v>
+        <v>8.87156586693983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.939583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>135976.8925891819</v>
+        <v>167926.8127192746</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.0827705475697</v>
+        <v>304.0845474680132</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.593208938998</v>
+        <v>416.0618931091692</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.3695763665889</v>
+        <v>376.3535299773638</v>
       </c>
       <c r="AD2" t="n">
-        <v>262082.7705475697</v>
+        <v>304084.5474680132</v>
       </c>
       <c r="AE2" t="n">
-        <v>358593.208938998</v>
+        <v>416061.8931091692</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.653359984094732e-06</v>
+        <v>5.348381581137651e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.606250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>324369.5763665889</v>
+        <v>376353.5299773638</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.0542060731361</v>
+        <v>150.1358845375527</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.1046817513917</v>
+        <v>205.4225407519484</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.7746910720156</v>
+        <v>185.8173017749877</v>
       </c>
       <c r="AD3" t="n">
-        <v>125054.2060731361</v>
+        <v>150135.8845375527</v>
       </c>
       <c r="AE3" t="n">
-        <v>171104.6817513917</v>
+        <v>205422.5407519484</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.829107294516649e-06</v>
+        <v>8.533593794259823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.39375</v>
       </c>
       <c r="AH3" t="n">
-        <v>154774.6910720156</v>
+        <v>185817.3017749877</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.0772018029591</v>
+        <v>129.2441316133962</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.4030190688358</v>
+        <v>176.8375227220417</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.8122747928371</v>
+        <v>159.9603977465214</v>
       </c>
       <c r="AD4" t="n">
-        <v>104077.2018029591</v>
+        <v>129244.1316133962</v>
       </c>
       <c r="AE4" t="n">
-        <v>142403.0190688358</v>
+        <v>176837.5227220417</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.293172147089819e-06</v>
+        <v>9.212967280793129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.995833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>128812.2747928371</v>
+        <v>159960.3977465214</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.1519095679712</v>
+        <v>126.4537757706904</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.1369934119136</v>
+        <v>173.0196347562419</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.6670768477329</v>
+        <v>156.5068836497368</v>
       </c>
       <c r="AD2" t="n">
-        <v>103151.9095679712</v>
+        <v>126453.7757706904</v>
       </c>
       <c r="AE2" t="n">
-        <v>141136.9934119136</v>
+        <v>173019.6347562419</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.180433738607856e-06</v>
+        <v>9.561893862579143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>127667.0768477329</v>
+        <v>156506.8836497368</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.491525400943</v>
+        <v>126.7933916036622</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.6016707773784</v>
+        <v>173.4843121217067</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.0874060576168</v>
+        <v>156.9272128596207</v>
       </c>
       <c r="AD3" t="n">
-        <v>103491.525400943</v>
+        <v>126793.3916036622</v>
       </c>
       <c r="AE3" t="n">
-        <v>141601.6707773784</v>
+        <v>173484.3121217067</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.185148927422357e-06</v>
+        <v>9.569188841684677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.672916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>128087.4060576168</v>
+        <v>156927.2128596207</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.7269217574287</v>
+        <v>161.7060669466416</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.4440504313902</v>
+        <v>221.2533747644787</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.4592147411573</v>
+        <v>200.1372632080822</v>
       </c>
       <c r="AD2" t="n">
-        <v>137726.9217574287</v>
+        <v>161706.0669466416</v>
       </c>
       <c r="AE2" t="n">
-        <v>188444.0504313902</v>
+        <v>221253.3747644787</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.394357921328716e-06</v>
+        <v>8.152460590107547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.222916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>170459.2147411573</v>
+        <v>200137.2632080822</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.5419794431296</v>
+        <v>129.4357837777708</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.4071924575447</v>
+        <v>177.0997496684357</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.6251726862033</v>
+        <v>160.1975981211894</v>
       </c>
       <c r="AD3" t="n">
-        <v>105541.9794431296</v>
+        <v>129435.7837777708</v>
       </c>
       <c r="AE3" t="n">
-        <v>144407.1924575447</v>
+        <v>177099.7496684357</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.331008170839085e-06</v>
+        <v>9.568014462729853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.302083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>130625.1726862033</v>
+        <v>160197.5981211894</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.7374119141962</v>
+        <v>133.3285954795988</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.5158123707586</v>
+        <v>182.4260663776055</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.055355891913</v>
+        <v>165.0155786391703</v>
       </c>
       <c r="AD2" t="n">
-        <v>110737.4119141962</v>
+        <v>133328.5954795988</v>
       </c>
       <c r="AE2" t="n">
-        <v>151515.8123707586</v>
+        <v>182426.0663776055</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.89543329053446e-06</v>
+        <v>9.317661513555267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.181250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>137055.355891913</v>
+        <v>165015.5786391703</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>297.0347806121101</v>
+        <v>330.9316007304225</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.4160910831592</v>
+        <v>452.7952157911961</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.6283097587481</v>
+        <v>409.5810758981603</v>
       </c>
       <c r="AD2" t="n">
-        <v>297034.7806121101</v>
+        <v>330931.6007304225</v>
       </c>
       <c r="AE2" t="n">
-        <v>406416.0910831592</v>
+        <v>452795.2157911961</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.419234707472164e-06</v>
+        <v>4.984855398583671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.112500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>367628.309758748</v>
+        <v>409581.0758981603</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.7211009817656</v>
+        <v>158.1436489390862</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.594865604905</v>
+        <v>216.3791172837535</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.2637065016183</v>
+        <v>195.7281980202525</v>
       </c>
       <c r="AD3" t="n">
-        <v>132721.1009817656</v>
+        <v>158143.6489390862</v>
       </c>
       <c r="AE3" t="n">
-        <v>181594.8656049049</v>
+        <v>216379.1172837535</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.604900704104051e-06</v>
+        <v>8.17130788720679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.558333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>164263.7065016183</v>
+        <v>195728.1980202525</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.3671862129417</v>
+        <v>130.7043933156907</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.1680326486687</v>
+        <v>178.8355172053196</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.4088379538234</v>
+        <v>161.7677064405188</v>
       </c>
       <c r="AD4" t="n">
-        <v>105367.1862129417</v>
+        <v>130704.3933156907</v>
       </c>
       <c r="AE4" t="n">
-        <v>144168.0326486687</v>
+        <v>178835.5172053196</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.266253861152512e-06</v>
+        <v>9.135485586994078e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.972916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>130408.8379538234</v>
+        <v>161767.7064405188</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>105.6886911931046</v>
+        <v>131.0258982958537</v>
       </c>
       <c r="AB5" t="n">
-        <v>144.6079299463261</v>
+        <v>179.275414502977</v>
       </c>
       <c r="AC5" t="n">
-        <v>130.8067520707923</v>
+        <v>162.1656205574876</v>
       </c>
       <c r="AD5" t="n">
-        <v>105688.6911931046</v>
+        <v>131025.8982958537</v>
       </c>
       <c r="AE5" t="n">
-        <v>144607.9299463261</v>
+        <v>179275.414502977</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.266104301415504e-06</v>
+        <v>9.135267545904122e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.972916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>130806.7520707923</v>
+        <v>162165.6205574877</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.0427535044167</v>
+        <v>141.6988605740198</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.301838322104</v>
+        <v>193.8786323498209</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.6709260331657</v>
+        <v>175.3751277887784</v>
       </c>
       <c r="AD2" t="n">
-        <v>112042.7535044167</v>
+        <v>141698.8605740198</v>
       </c>
       <c r="AE2" t="n">
-        <v>153301.838322104</v>
+        <v>193878.6323498209</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.615524530359628e-06</v>
+        <v>8.997389371308899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.639583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>138670.9260331657</v>
+        <v>175375.1277887784</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.4966598290479</v>
+        <v>224.2589189163469</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.0141782143682</v>
+        <v>306.8409464664501</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.0079127848742</v>
+        <v>277.556477189756</v>
       </c>
       <c r="AD2" t="n">
-        <v>191496.6598290479</v>
+        <v>224258.9189163469</v>
       </c>
       <c r="AE2" t="n">
-        <v>262014.1782143682</v>
+        <v>306840.9464664501</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.436119020720344e-06</v>
+        <v>6.586941149573258e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.302083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>237007.9127848741</v>
+        <v>277556.477189756</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.3311370318015</v>
+        <v>125.7976521842982</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.591685036198</v>
+        <v>172.1218975192108</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.3148645696326</v>
+        <v>155.6948251946256</v>
       </c>
       <c r="AD3" t="n">
-        <v>109331.1370318015</v>
+        <v>125797.6521842982</v>
       </c>
       <c r="AE3" t="n">
-        <v>149591.685036198</v>
+        <v>172121.8975192108</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.316144084846865e-06</v>
+        <v>9.378483576474424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.129166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>135314.8645696326</v>
+        <v>155694.8251946256</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.9435696249502</v>
+        <v>125.4100847774468</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.061398211877</v>
+        <v>171.5916106948897</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.8351875755624</v>
+        <v>155.2151482005553</v>
       </c>
       <c r="AD4" t="n">
-        <v>108943.5696249502</v>
+        <v>125410.0847774468</v>
       </c>
       <c r="AE4" t="n">
-        <v>149061.398211877</v>
+        <v>171591.6106948897</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.346309072229261e-06</v>
+        <v>9.42327385278067e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>134835.1875755624</v>
+        <v>155215.1482005554</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.711788509946</v>
+        <v>273.0605616505152</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.9842443768941</v>
+        <v>373.6135070320109</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.6818884224389</v>
+        <v>337.9563582907255</v>
       </c>
       <c r="AD2" t="n">
-        <v>239711.788509946</v>
+        <v>273060.5616505152</v>
       </c>
       <c r="AE2" t="n">
-        <v>327984.2443768941</v>
+        <v>373613.5070320109</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.889313921417078e-06</v>
+        <v>5.71901240477023e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.160416666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>296681.8884224389</v>
+        <v>337956.3582907255</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.78240254232</v>
+        <v>135.4995042941642</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.5233234680896</v>
+        <v>185.3963995914301</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.0123255792571</v>
+        <v>167.7024274199572</v>
       </c>
       <c r="AD3" t="n">
-        <v>118782.40254232</v>
+        <v>135499.5042941642</v>
       </c>
       <c r="AE3" t="n">
-        <v>162523.3234680896</v>
+        <v>185396.3995914301</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.019607962044404e-06</v>
+        <v>8.851487255171817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.272916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>147012.3255792571</v>
+        <v>167702.4274199572</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.5260236772879</v>
+        <v>128.2431254291321</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.5948257761157</v>
+        <v>175.4679018994562</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.031389772268</v>
+        <v>158.7214916129681</v>
       </c>
       <c r="AD4" t="n">
-        <v>111526.0236772879</v>
+        <v>128243.1254291321</v>
       </c>
       <c r="AE4" t="n">
-        <v>152594.8257761157</v>
+        <v>175467.9018994562</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.305109716470179e-06</v>
+        <v>9.271301162749059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.033333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>138031.389772268</v>
+        <v>158721.4916129681</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.7060457065848</v>
+        <v>413.5307704022101</v>
       </c>
       <c r="AB2" t="n">
-        <v>507.2163661322516</v>
+        <v>565.8110437543201</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.8083480312296</v>
+        <v>511.8108318591943</v>
       </c>
       <c r="AD2" t="n">
-        <v>370706.0457065848</v>
+        <v>413530.7704022101</v>
       </c>
       <c r="AE2" t="n">
-        <v>507216.3661322516</v>
+        <v>565811.04375432</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.984098492462861e-06</v>
+        <v>4.317311656077063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>458808.3480312296</v>
+        <v>511810.8318591943</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.6144056648749</v>
+        <v>172.3603912898621</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.6042980016697</v>
+        <v>235.8310913664823</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.4589053503479</v>
+        <v>213.3237029975489</v>
       </c>
       <c r="AD3" t="n">
-        <v>146614.4056648749</v>
+        <v>172360.3912898621</v>
       </c>
       <c r="AE3" t="n">
-        <v>200604.2980016698</v>
+        <v>235831.0913664823</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.255148466227037e-06</v>
+        <v>7.603004319382348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.829166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>181458.9053503479</v>
+        <v>213323.7029975489</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.0544804251269</v>
+        <v>137.218560350336</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.2638365474605</v>
+        <v>187.7484879268839</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.5867265331588</v>
+        <v>169.8300357458527</v>
       </c>
       <c r="AD4" t="n">
-        <v>120054.4804251269</v>
+        <v>137218.560350336</v>
       </c>
       <c r="AE4" t="n">
-        <v>164263.8365474605</v>
+        <v>187748.4879268839</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.088043250699991e-06</v>
+        <v>8.808013594502857e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>148586.7265331588</v>
+        <v>169830.0357458527</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.4506713283911</v>
+        <v>134.1113160988066</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.386993017387</v>
+        <v>183.4970192600019</v>
       </c>
       <c r="AC5" t="n">
-        <v>134.2251466663006</v>
+        <v>165.9843212815629</v>
       </c>
       <c r="AD5" t="n">
-        <v>108450.6713283911</v>
+        <v>134111.3160988067</v>
       </c>
       <c r="AE5" t="n">
-        <v>148386.993017387</v>
+        <v>183497.0192600019</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.196713668377518e-06</v>
+        <v>8.965234967086554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.943750000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>134225.1466663007</v>
+        <v>165984.3212815629</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>151.9616405273075</v>
+        <v>176.3344090814756</v>
       </c>
       <c r="AB2" t="n">
-        <v>207.9206206437993</v>
+        <v>241.2685178302566</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.0769684280382</v>
+        <v>218.2421891110983</v>
       </c>
       <c r="AD2" t="n">
-        <v>151961.6405273075</v>
+        <v>176334.4090814756</v>
       </c>
       <c r="AE2" t="n">
-        <v>207920.6206437993</v>
+        <v>241268.5178302566</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04049003889812e-06</v>
+        <v>7.569226338609036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.574999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>188076.9684280382</v>
+        <v>218242.1891110983</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.5781210473345</v>
+        <v>122.7698290222832</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.8248871117586</v>
+        <v>167.9790962908134</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.9075645523664</v>
+        <v>151.9474071010071</v>
       </c>
       <c r="AD3" t="n">
-        <v>106578.1210473345</v>
+        <v>122769.8290222832</v>
       </c>
       <c r="AE3" t="n">
-        <v>145824.8871117586</v>
+        <v>167979.0962908134</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.344997623766336e-06</v>
+        <v>9.528185307697348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.222916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>131907.5645523664</v>
+        <v>151947.4071010071</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.1169863600179</v>
+        <v>130.6915623362589</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.5621864056315</v>
+        <v>178.8179612931982</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.5744970364384</v>
+        <v>161.7518260400104</v>
       </c>
       <c r="AD2" t="n">
-        <v>107116.9863600179</v>
+        <v>130691.5623362589</v>
       </c>
       <c r="AE2" t="n">
-        <v>146562.1864056315</v>
+        <v>178817.9612931982</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.09732433171471e-06</v>
+        <v>9.351751370644884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.662500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>132574.4970364384</v>
+        <v>161751.8260400104</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.586195706074</v>
+        <v>126.9901794817228</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.7312028654177</v>
+        <v>173.7535659781376</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.2045757849731</v>
+        <v>157.170769505894</v>
       </c>
       <c r="AD3" t="n">
-        <v>103586.195706074</v>
+        <v>126990.1794817228</v>
       </c>
       <c r="AE3" t="n">
-        <v>141731.2028654178</v>
+        <v>173753.5659781376</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.280108175218578e-06</v>
+        <v>9.632095496367048e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.497916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>128204.5757849731</v>
+        <v>157170.769505894</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.6686361007329</v>
+        <v>125.6734163710068</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.4757573335177</v>
+        <v>171.9519125985682</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.0689482126083</v>
+        <v>155.5410633962338</v>
       </c>
       <c r="AD2" t="n">
-        <v>102668.6361007329</v>
+        <v>125673.4163710068</v>
       </c>
       <c r="AE2" t="n">
-        <v>140475.7573335177</v>
+        <v>171951.9125985682</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.07923498701394e-06</v>
+        <v>9.498684752076894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>127068.9482126083</v>
+        <v>155541.0633962338</v>
       </c>
     </row>
   </sheetData>
@@ -12789,28 +12789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.2609873858519</v>
+        <v>152.2574198219181</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.6511208322256</v>
+        <v>208.3253189235469</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.5552945633795</v>
+        <v>188.4430428719645</v>
       </c>
       <c r="AD2" t="n">
-        <v>123260.9873858519</v>
+        <v>152257.4198219182</v>
       </c>
       <c r="AE2" t="n">
-        <v>168651.1208322257</v>
+        <v>208325.3189235469</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.141077143707653e-06</v>
+        <v>8.378290719503787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.45625</v>
       </c>
       <c r="AH2" t="n">
-        <v>152555.2945633795</v>
+        <v>188443.0428719645</v>
       </c>
     </row>
   </sheetData>
@@ -13086,28 +13086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.7889149783854</v>
+        <v>242.9776975352698</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.0424487070214</v>
+        <v>332.4528051870772</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.6475202691148</v>
+        <v>300.723976060564</v>
       </c>
       <c r="AD2" t="n">
-        <v>209788.9149783854</v>
+        <v>242977.6975352698</v>
       </c>
       <c r="AE2" t="n">
-        <v>287042.4487070214</v>
+        <v>332452.8051870771</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.161099240366679e-06</v>
+        <v>6.147528144454506e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.704166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>259647.5202691148</v>
+        <v>300723.976060564</v>
       </c>
     </row>
     <row r="3">
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.2641473279845</v>
+        <v>129.8586281149778</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.9730032356012</v>
+        <v>177.6783039451775</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.182597312814</v>
+        <v>160.7209359897652</v>
       </c>
       <c r="AD3" t="n">
-        <v>113264.1473279845</v>
+        <v>129858.6281149777</v>
       </c>
       <c r="AE3" t="n">
-        <v>154973.0032356012</v>
+        <v>177678.3039451775</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.194026177604581e-06</v>
+        <v>9.150935379026593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.175</v>
       </c>
       <c r="AH3" t="n">
-        <v>140182.597312814</v>
+        <v>160720.9359897652</v>
       </c>
     </row>
     <row r="4">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.3790910505166</v>
+        <v>126.9735718375098</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.0255419570715</v>
+        <v>173.7308426666478</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.6118761984092</v>
+        <v>157.1502148753604</v>
       </c>
       <c r="AD4" t="n">
-        <v>110379.0910505166</v>
+        <v>126973.5718375098</v>
       </c>
       <c r="AE4" t="n">
-        <v>151025.5419570715</v>
+        <v>173730.8426666478</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.322045797024951e-06</v>
+        <v>9.340069107392017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.070833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>136611.8761984092</v>
+        <v>157150.2148753604</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.5316860879481</v>
+        <v>369.1766002914813</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.7750584668284</v>
+        <v>505.1237114409374</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.1354739394862</v>
+        <v>456.9154133665951</v>
       </c>
       <c r="AD2" t="n">
-        <v>326531.6860879481</v>
+        <v>369176.6002914813</v>
       </c>
       <c r="AE2" t="n">
-        <v>446775.0584668284</v>
+        <v>505123.7114409374</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.201379031205781e-06</v>
+        <v>4.648943436400827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.647916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>404135.4739394863</v>
+        <v>456915.4133665952</v>
       </c>
     </row>
     <row r="3">
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.2352275170689</v>
+        <v>164.8221760391885</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.5077809134827</v>
+        <v>225.5169726979301</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.3259856825035</v>
+        <v>203.9939493387636</v>
       </c>
       <c r="AD3" t="n">
-        <v>139235.2275170689</v>
+        <v>164822.1760391885</v>
       </c>
       <c r="AE3" t="n">
-        <v>190507.7809134827</v>
+        <v>225516.9726979301</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.438385443312752e-06</v>
+        <v>7.897454835825554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.679166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>172325.9856825035</v>
+        <v>203993.9493387636</v>
       </c>
     </row>
     <row r="4">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.7623373789278</v>
+        <v>133.2639450464757</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.4451841405811</v>
+        <v>182.3376088028309</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.3732227068597</v>
+        <v>164.9355633311811</v>
       </c>
       <c r="AD4" t="n">
-        <v>107762.3373789278</v>
+        <v>133263.9450464757</v>
       </c>
       <c r="AE4" t="n">
-        <v>147445.1841405811</v>
+        <v>182337.6088028309</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.19725061313866e-06</v>
+        <v>8.999455322486635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.985416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>133373.2227068597</v>
+        <v>164935.5633311811</v>
       </c>
     </row>
     <row r="5">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.9674254676497</v>
+        <v>132.4690331351977</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.3575505945326</v>
+        <v>181.2499752567823</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.3893913799425</v>
+        <v>163.9517320042638</v>
       </c>
       <c r="AD5" t="n">
-        <v>106967.4254676498</v>
+        <v>132469.0331351977</v>
       </c>
       <c r="AE5" t="n">
-        <v>146357.5505945326</v>
+        <v>181249.9752567823</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.237877626919883e-06</v>
+        <v>9.058452613097252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.952083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>132389.3913799424</v>
+        <v>163951.7320042638</v>
       </c>
     </row>
   </sheetData>
@@ -14210,28 +14210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.9677039747474</v>
+        <v>174.4304493643425</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.7194522187727</v>
+        <v>238.6634361485018</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.6585080070814</v>
+        <v>215.8857327687942</v>
       </c>
       <c r="AD2" t="n">
-        <v>145967.7039747474</v>
+        <v>174430.4493643425</v>
       </c>
       <c r="AE2" t="n">
-        <v>199719.4522187727</v>
+        <v>238663.4361485018</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.338973354426045e-06</v>
+        <v>7.23281006995337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.147916666666665</v>
       </c>
       <c r="AH2" t="n">
-        <v>180658.5080070814</v>
+        <v>215885.7327687942</v>
       </c>
     </row>
   </sheetData>
@@ -14507,28 +14507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.1604779247737</v>
+        <v>140.988100852221</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.3041346520997</v>
+        <v>192.9061395419503</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.0049330292135</v>
+        <v>174.4954483295884</v>
       </c>
       <c r="AD2" t="n">
-        <v>117160.4779247737</v>
+        <v>140988.100852221</v>
       </c>
       <c r="AE2" t="n">
-        <v>160304.1346520997</v>
+        <v>192906.1395419503</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.760725092397402e-06</v>
+        <v>8.767285664038779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>145004.9330292135</v>
+        <v>174495.4483295884</v>
       </c>
     </row>
     <row r="3">
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.6025357883634</v>
+        <v>128.2595665152185</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.1218042037654</v>
+        <v>175.4903973187691</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.4624600833105</v>
+        <v>158.7418401010343</v>
       </c>
       <c r="AD3" t="n">
-        <v>104602.5357883634</v>
+        <v>128259.5665152185</v>
       </c>
       <c r="AE3" t="n">
-        <v>143121.8042037654</v>
+        <v>175490.3973187691</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.313331428329392e-06</v>
+        <v>9.608300905899119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.389583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129462.4600833105</v>
+        <v>158741.8401010343</v>
       </c>
     </row>
   </sheetData>
@@ -14910,28 +14910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.7495897830849</v>
+        <v>199.3291335406376</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.154145213821</v>
+        <v>272.7309142909127</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.3794338110336</v>
+        <v>246.7018586113101</v>
       </c>
       <c r="AD2" t="n">
-        <v>166749.5897830849</v>
+        <v>199329.1335406376</v>
       </c>
       <c r="AE2" t="n">
-        <v>228154.145213821</v>
+        <v>272730.9142909127</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.72799958272977e-06</v>
+        <v>7.058481138385766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>206379.4338110336</v>
+        <v>246701.8586113101</v>
       </c>
     </row>
     <row r="3">
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.4952893012661</v>
+        <v>123.8278211158793</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.0797971793949</v>
+        <v>169.4266877485879</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.0427077644252</v>
+        <v>153.2568424617594</v>
       </c>
       <c r="AD3" t="n">
-        <v>107495.2893012661</v>
+        <v>123827.8211158793</v>
       </c>
       <c r="AE3" t="n">
-        <v>147079.7971793949</v>
+        <v>169426.6877485879</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.353210133630197e-06</v>
+        <v>9.484775349861346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>133042.7077644252</v>
+        <v>153256.8424617595</v>
       </c>
     </row>
     <row r="4">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.8678050498645</v>
+        <v>124.2003368644777</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.589489660862</v>
+        <v>169.936380230055</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.5037559108191</v>
+        <v>153.7178906081534</v>
       </c>
       <c r="AD4" t="n">
-        <v>107867.8050498645</v>
+        <v>124200.3368644777</v>
       </c>
       <c r="AE4" t="n">
-        <v>147589.489660862</v>
+        <v>169936.380230055</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.351795129764656e-06</v>
+        <v>9.482662875458398e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>133503.7559108191</v>
+        <v>153717.8906081534</v>
       </c>
     </row>
   </sheetData>
